--- a/me/7.Plugin.xlsx
+++ b/me/7.Plugin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA2D345-0BBE-4BFC-9275-9563393E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BD32BF-3497-4505-8506-BB433BA25887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
